--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\MStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48CBB3-56F9-4485-8CF6-33C2C523C874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6ACECD-71C7-4B04-8008-C69CD0561D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -500,20 +500,20 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -702,16 +702,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
